--- a/data/social/S_1301.xlsx
+++ b/data/social/S_1301.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuj55142\Documents\GitHub\istart\Mock_Scan\Social\USE THIS COPY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/social/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD279FC-3255-4446-A79E-61D4EA9EDC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-effort_run-social_sub-1301" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="51">
-  <si>
-    <t>C:\Users\tuj55142\Documents\GitHub\istart\Mock_Scan\Social\USE THIS COPY\EEfRTTextCuesV2_Win1_v2_815_Social_052521-1301-1.edat2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="50">
   <si>
     <t>ExperimentName</t>
   </si>
@@ -177,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -980,134 +978,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>1301</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>16.93</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2">
+        <v>60.01</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
+      <c r="N2">
+        <v>-19159930</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="R2" s="1">
+        <v>44396</v>
+      </c>
+      <c r="S2" s="2">
+        <v>44396.835266203707</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.66859953703703701</v>
       </c>
       <c r="U2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>38</v>
       </c>
       <c r="B3">
         <v>1301</v>
@@ -1119,28 +1197,28 @@
         <v>16.93</v>
       </c>
       <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
         <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
       </c>
       <c r="G3">
         <v>60.01</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3">
         <v>9</v>
       </c>
       <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
         <v>42</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
       </c>
       <c r="M3">
         <v>7</v>
@@ -1149,13 +1227,13 @@
         <v>-19159930</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R3" s="1">
         <v>44396</v>
@@ -1167,30 +1245,30 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB3">
         <v>1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="s">
         <v>47</v>
       </c>
       <c r="AF3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>1301</v>
@@ -1202,28 +1280,28 @@
         <v>16.93</v>
       </c>
       <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
         <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
       </c>
       <c r="G4">
         <v>60.01</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>9</v>
       </c>
       <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
         <v>42</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
       </c>
       <c r="M4">
         <v>7</v>
@@ -1232,13 +1310,13 @@
         <v>-19159930</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R4" s="1">
         <v>44396</v>
@@ -1250,30 +1328,30 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB4">
         <v>1</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>1301</v>
@@ -1285,28 +1363,28 @@
         <v>16.93</v>
       </c>
       <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
         <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
       </c>
       <c r="G5">
         <v>60.01</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>9</v>
       </c>
       <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
         <v>42</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
       </c>
       <c r="M5">
         <v>7</v>
@@ -1315,13 +1393,13 @@
         <v>-19159930</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R5" s="1">
         <v>44396</v>
@@ -1333,30 +1411,30 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>4</v>
+      </c>
+      <c r="AE5" t="s">
         <v>46</v>
       </c>
-      <c r="V5">
-        <v>3</v>
-      </c>
-      <c r="AA5">
-        <v>3</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>3</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>48</v>
-      </c>
       <c r="AF5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>1301</v>
@@ -1368,28 +1446,28 @@
         <v>16.93</v>
       </c>
       <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
       </c>
       <c r="G6">
         <v>60.01</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6">
         <v>9</v>
       </c>
       <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>42</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
       </c>
       <c r="M6">
         <v>7</v>
@@ -1398,13 +1476,13 @@
         <v>-19159930</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R6" s="1">
         <v>44396</v>
@@ -1416,30 +1494,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V6">
-        <v>4</v>
-      </c>
-      <c r="AA6">
-        <v>4</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>5.3</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>3040</v>
+      </c>
+      <c r="AD6">
+        <v>12</v>
       </c>
       <c r="AE6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="AG6">
+        <v>0.1777667</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>1301</v>
@@ -1451,28 +1550,28 @@
         <v>16.93</v>
       </c>
       <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
         <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
       </c>
       <c r="G7">
         <v>60.01</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7">
         <v>9</v>
       </c>
       <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
         <v>42</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
       </c>
       <c r="M7">
         <v>7</v>
@@ -1481,13 +1580,13 @@
         <v>-19159930</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R7" s="1">
         <v>44396</v>
@@ -1499,13 +1598,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W7">
-        <v>5.3</v>
+        <v>2.48</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1514,36 +1613,36 @@
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>3040</v>
+        <v>2622</v>
       </c>
       <c r="AD7">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG7">
-        <v>0.1777667</v>
+        <v>0.2299667</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI7">
         <v>1</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>1301</v>
@@ -1555,28 +1654,28 @@
         <v>16.93</v>
       </c>
       <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
       </c>
       <c r="G8">
         <v>60.01</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8">
         <v>9</v>
       </c>
       <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
         <v>42</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>43</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -1585,13 +1684,13 @@
         <v>-19159930</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R8" s="1">
         <v>44396</v>
@@ -1603,13 +1702,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W8">
-        <v>2.48</v>
+        <v>4.99</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1618,36 +1717,36 @@
         <v>1</v>
       </c>
       <c r="Z8">
-        <v>2622</v>
+        <v>2982</v>
       </c>
       <c r="AD8">
         <v>50</v>
       </c>
       <c r="AE8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG8">
-        <v>0.2299667</v>
+        <v>0.19109999999999999</v>
       </c>
       <c r="AH8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI8">
         <v>1</v>
       </c>
       <c r="AJ8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>1301</v>
@@ -1659,28 +1758,28 @@
         <v>16.93</v>
       </c>
       <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
       </c>
       <c r="G9">
         <v>60.01</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <v>9</v>
       </c>
       <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
         <v>42</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>43</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1689,13 +1788,13 @@
         <v>-19159930</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R9" s="1">
         <v>44396</v>
@@ -1707,51 +1806,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W9">
-        <v>4.99</v>
+        <v>5.62</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>1</v>
       </c>
       <c r="Z9">
-        <v>2982</v>
+        <v>2343</v>
       </c>
       <c r="AD9">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AE9" t="s">
         <v>49</v>
       </c>
       <c r="AF9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG9">
-        <v>0.19109999999999999</v>
+        <v>0.20347000000000001</v>
       </c>
       <c r="AH9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI9">
         <v>1</v>
       </c>
       <c r="AJ9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>5.62</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>1301</v>
@@ -1763,28 +1862,28 @@
         <v>16.93</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
       </c>
       <c r="G10">
         <v>60.01</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
         <v>42</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>43</v>
       </c>
       <c r="M10">
         <v>7</v>
@@ -1793,13 +1892,13 @@
         <v>-19159930</v>
       </c>
       <c r="O10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R10" s="1">
         <v>44396</v>
@@ -1811,51 +1910,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W10">
-        <v>5.62</v>
+        <v>3.1</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>1</v>
       </c>
       <c r="Z10">
-        <v>2343</v>
+        <v>1619</v>
       </c>
       <c r="AD10">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG10">
-        <v>0.20347000000000001</v>
+        <v>0.19333330000000001</v>
       </c>
       <c r="AH10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI10">
         <v>1</v>
       </c>
       <c r="AJ10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK10">
-        <v>5.62</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>1301</v>
@@ -1867,28 +1966,28 @@
         <v>16.93</v>
       </c>
       <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
       </c>
       <c r="G11">
         <v>60.01</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11">
         <v>9</v>
       </c>
       <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
         <v>42</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>43</v>
       </c>
       <c r="M11">
         <v>7</v>
@@ -1897,13 +1996,13 @@
         <v>-19159930</v>
       </c>
       <c r="O11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R11" s="1">
         <v>44396</v>
@@ -1915,13 +2014,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W11">
-        <v>3.1</v>
+        <v>3.42</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1930,36 +2029,36 @@
         <v>1</v>
       </c>
       <c r="Z11">
-        <v>1619</v>
+        <v>1535</v>
       </c>
       <c r="AD11">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AE11" t="s">
         <v>49</v>
       </c>
       <c r="AF11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG11">
-        <v>0.19333330000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AH11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI11">
         <v>1</v>
       </c>
       <c r="AJ11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>1301</v>
@@ -1971,28 +2070,28 @@
         <v>16.93</v>
       </c>
       <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
         <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
       </c>
       <c r="G12">
         <v>60.01</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12">
         <v>9</v>
       </c>
       <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
         <v>42</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>43</v>
       </c>
       <c r="M12">
         <v>7</v>
@@ -2001,13 +2100,13 @@
         <v>-19159930</v>
       </c>
       <c r="O12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R12" s="1">
         <v>44396</v>
@@ -2019,51 +2118,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W12">
-        <v>3.42</v>
+        <v>4.67</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>1</v>
       </c>
       <c r="Z12">
-        <v>1535</v>
+        <v>2895</v>
       </c>
       <c r="AD12">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AE12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG12">
-        <v>0.2</v>
+        <v>0.20247000000000001</v>
       </c>
       <c r="AH12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI12">
         <v>1</v>
       </c>
       <c r="AJ12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK12">
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>1301</v>
@@ -2075,28 +2174,28 @@
         <v>16.93</v>
       </c>
       <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
       </c>
       <c r="G13">
         <v>60.01</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13">
         <v>9</v>
       </c>
       <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>42</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>43</v>
       </c>
       <c r="M13">
         <v>7</v>
@@ -2105,13 +2204,13 @@
         <v>-19159930</v>
       </c>
       <c r="O13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R13" s="1">
         <v>44396</v>
@@ -2123,51 +2222,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W13">
-        <v>4.67</v>
+        <v>3.1</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>1</v>
       </c>
       <c r="Z13">
-        <v>2895</v>
+        <v>1177</v>
       </c>
       <c r="AD13">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AE13" t="s">
         <v>49</v>
       </c>
       <c r="AF13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG13">
-        <v>0.20247000000000001</v>
+        <v>0.16943330000000001</v>
       </c>
       <c r="AH13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI13">
         <v>1</v>
       </c>
       <c r="AJ13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>1301</v>
@@ -2179,28 +2278,28 @@
         <v>16.93</v>
       </c>
       <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
       </c>
       <c r="G14">
         <v>60.01</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14">
         <v>9</v>
       </c>
       <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
         <v>42</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>43</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -2209,13 +2308,13 @@
         <v>-19159930</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R14" s="1">
         <v>44396</v>
@@ -2227,13 +2326,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W14">
-        <v>3.1</v>
+        <v>3.73</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -2242,36 +2341,36 @@
         <v>1</v>
       </c>
       <c r="Z14">
-        <v>1177</v>
+        <v>1107</v>
       </c>
       <c r="AD14">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AE14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG14">
-        <v>0.16943330000000001</v>
+        <v>0.18</v>
       </c>
       <c r="AH14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI14">
         <v>1</v>
       </c>
       <c r="AJ14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK14">
         <v>1.75</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>1301</v>
@@ -2283,28 +2382,28 @@
         <v>16.93</v>
       </c>
       <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
         <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
       </c>
       <c r="G15">
         <v>60.01</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15">
         <v>9</v>
       </c>
       <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
         <v>42</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>43</v>
       </c>
       <c r="M15">
         <v>7</v>
@@ -2313,13 +2412,13 @@
         <v>-19159930</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R15" s="1">
         <v>44396</v>
@@ -2331,13 +2430,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W15">
-        <v>3.73</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -2346,36 +2445,36 @@
         <v>1</v>
       </c>
       <c r="Z15">
-        <v>1107</v>
+        <v>1780</v>
       </c>
       <c r="AD15">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG15">
-        <v>0.18</v>
+        <v>0.19943330000000001</v>
       </c>
       <c r="AH15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI15">
         <v>1</v>
       </c>
       <c r="AJ15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK15">
         <v>1.75</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>1301</v>
@@ -2387,28 +2486,28 @@
         <v>16.93</v>
       </c>
       <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
         <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
       </c>
       <c r="G16">
         <v>60.01</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16">
         <v>9</v>
       </c>
       <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
         <v>42</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>43</v>
       </c>
       <c r="M16">
         <v>7</v>
@@ -2417,13 +2516,13 @@
         <v>-19159930</v>
       </c>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R16" s="1">
         <v>44396</v>
@@ -2435,51 +2534,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W16">
-        <v>4.3600000000000003</v>
+        <v>6.87</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>1</v>
       </c>
       <c r="Z16">
-        <v>1780</v>
+        <v>1074</v>
       </c>
       <c r="AD16">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AE16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG16">
-        <v>0.19943330000000001</v>
+        <v>0.20613999999999999</v>
       </c>
       <c r="AH16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI16">
         <v>1</v>
       </c>
       <c r="AJ16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK16">
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>1301</v>
@@ -2491,28 +2590,28 @@
         <v>16.93</v>
       </c>
       <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
         <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>40</v>
       </c>
       <c r="G17">
         <v>60.01</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17">
         <v>9</v>
       </c>
       <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
         <v>42</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>43</v>
       </c>
       <c r="M17">
         <v>7</v>
@@ -2521,13 +2620,13 @@
         <v>-19159930</v>
       </c>
       <c r="O17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R17" s="1">
         <v>44396</v>
@@ -2539,22 +2638,22 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W17">
-        <v>6.87</v>
+        <v>4.05</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>1</v>
       </c>
       <c r="Z17">
-        <v>1074</v>
+        <v>4101</v>
       </c>
       <c r="AD17">
         <v>50</v>
@@ -2563,27 +2662,27 @@
         <v>49</v>
       </c>
       <c r="AF17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG17">
-        <v>0.20613999999999999</v>
+        <v>0.19943330000000001</v>
       </c>
       <c r="AH17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI17">
         <v>1</v>
       </c>
       <c r="AJ17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>1301</v>
@@ -2595,28 +2694,28 @@
         <v>16.93</v>
       </c>
       <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
         <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
       </c>
       <c r="G18">
         <v>60.01</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18">
         <v>9</v>
       </c>
       <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
         <v>42</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>43</v>
       </c>
       <c r="M18">
         <v>7</v>
@@ -2625,13 +2724,13 @@
         <v>-19159930</v>
       </c>
       <c r="O18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R18" s="1">
         <v>44396</v>
@@ -2643,13 +2742,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W18">
-        <v>4.05</v>
+        <v>3.73</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -2658,36 +2757,36 @@
         <v>1</v>
       </c>
       <c r="Z18">
-        <v>4101</v>
+        <v>1488</v>
       </c>
       <c r="AD18">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG18">
-        <v>0.19943330000000001</v>
+        <v>0.19333330000000001</v>
       </c>
       <c r="AH18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI18">
         <v>1</v>
       </c>
       <c r="AJ18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK18">
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>1301</v>
@@ -2699,28 +2798,28 @@
         <v>16.93</v>
       </c>
       <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
         <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>40</v>
       </c>
       <c r="G19">
         <v>60.01</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19">
         <v>9</v>
       </c>
       <c r="J19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
         <v>42</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>43</v>
       </c>
       <c r="M19">
         <v>7</v>
@@ -2729,13 +2828,13 @@
         <v>-19159930</v>
       </c>
       <c r="O19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R19" s="1">
         <v>44396</v>
@@ -2747,51 +2846,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W19">
-        <v>3.73</v>
+        <v>2.48</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1488</v>
+        <v>2241</v>
       </c>
       <c r="AD19">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AE19" t="s">
         <v>49</v>
       </c>
       <c r="AF19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG19">
-        <v>0.19333330000000001</v>
+        <v>0.2142551</v>
       </c>
       <c r="AH19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI19">
         <v>1</v>
       </c>
       <c r="AJ19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>1301</v>
@@ -2803,28 +2902,28 @@
         <v>16.93</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20">
         <v>60.01</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20">
         <v>9</v>
       </c>
       <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
         <v>42</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>43</v>
       </c>
       <c r="M20">
         <v>7</v>
@@ -2833,13 +2932,13 @@
         <v>-19159930</v>
       </c>
       <c r="O20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R20" s="1">
         <v>44396</v>
@@ -2851,13 +2950,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W20">
-        <v>2.48</v>
+        <v>5.3</v>
       </c>
       <c r="X20">
         <v>1</v>
@@ -2866,36 +2965,36 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>2241</v>
+        <v>2208</v>
       </c>
       <c r="AD20">
         <v>88</v>
       </c>
       <c r="AE20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG20">
         <v>0.2142551</v>
       </c>
       <c r="AH20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI20">
         <v>1</v>
       </c>
       <c r="AJ20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>1301</v>
@@ -2907,28 +3006,28 @@
         <v>16.93</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21">
         <v>60.01</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21">
         <v>9</v>
       </c>
       <c r="J21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
         <v>42</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>43</v>
       </c>
       <c r="M21">
         <v>7</v>
@@ -2937,13 +3036,13 @@
         <v>-19159930</v>
       </c>
       <c r="O21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R21" s="1">
         <v>44396</v>
@@ -2955,51 +3054,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W21">
-        <v>5.3</v>
+        <v>2.16</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>2208</v>
+        <v>1464</v>
       </c>
       <c r="AD21">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG21">
-        <v>0.2142551</v>
+        <v>0.1822</v>
       </c>
       <c r="AH21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI21">
         <v>1</v>
       </c>
       <c r="AJ21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>1301</v>
@@ -3011,28 +3110,28 @@
         <v>16.93</v>
       </c>
       <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
       </c>
       <c r="G22">
         <v>60.01</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22">
         <v>9</v>
       </c>
       <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
         <v>42</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>43</v>
       </c>
       <c r="M22">
         <v>7</v>
@@ -3041,13 +3140,13 @@
         <v>-19159930</v>
       </c>
       <c r="O22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R22" s="1">
         <v>44396</v>
@@ -3059,51 +3158,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W22">
-        <v>2.16</v>
+        <v>6.24</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>1</v>
       </c>
       <c r="Z22">
-        <v>1464</v>
+        <v>1512</v>
       </c>
       <c r="AD22">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AE22" t="s">
         <v>49</v>
       </c>
       <c r="AF22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG22">
-        <v>0.1822</v>
+        <v>0.19814000000000001</v>
       </c>
       <c r="AH22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI22">
         <v>1</v>
       </c>
       <c r="AJ22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>6.24</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>1301</v>
@@ -3115,28 +3214,28 @@
         <v>16.93</v>
       </c>
       <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
         <v>39</v>
-      </c>
-      <c r="F23" t="s">
-        <v>40</v>
       </c>
       <c r="G23">
         <v>60.01</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I23">
         <v>9</v>
       </c>
       <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
         <v>42</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>43</v>
       </c>
       <c r="M23">
         <v>7</v>
@@ -3145,13 +3244,13 @@
         <v>-19159930</v>
       </c>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R23" s="1">
         <v>44396</v>
@@ -3163,51 +3262,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W23">
-        <v>6.24</v>
+        <v>4.05</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>1512</v>
+        <v>1106</v>
       </c>
       <c r="AD23">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG23">
-        <v>0.19814000000000001</v>
+        <v>0.17280000000000001</v>
       </c>
       <c r="AH23">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI23">
         <v>1</v>
       </c>
       <c r="AJ23">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK23">
-        <v>6.24</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>1301</v>
@@ -3219,28 +3318,28 @@
         <v>16.93</v>
       </c>
       <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
         <v>39</v>
-      </c>
-      <c r="F24" t="s">
-        <v>40</v>
       </c>
       <c r="G24">
         <v>60.01</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I24">
         <v>9</v>
       </c>
       <c r="J24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
         <v>42</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>43</v>
       </c>
       <c r="M24">
         <v>7</v>
@@ -3249,13 +3348,13 @@
         <v>-19159930</v>
       </c>
       <c r="O24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R24" s="1">
         <v>44396</v>
@@ -3267,51 +3366,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W24">
-        <v>4.05</v>
+        <v>7.19</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
         <v>1</v>
       </c>
       <c r="Z24">
-        <v>1106</v>
+        <v>931</v>
       </c>
       <c r="AD24">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AE24" t="s">
         <v>49</v>
       </c>
       <c r="AF24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG24">
-        <v>0.17280000000000001</v>
+        <v>0.19697999999999999</v>
       </c>
       <c r="AH24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI24">
         <v>1</v>
       </c>
       <c r="AJ24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>7.19</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>1301</v>
@@ -3323,28 +3422,28 @@
         <v>16.93</v>
       </c>
       <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
         <v>39</v>
-      </c>
-      <c r="F25" t="s">
-        <v>40</v>
       </c>
       <c r="G25">
         <v>60.01</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I25">
         <v>9</v>
       </c>
       <c r="J25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
         <v>42</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>43</v>
       </c>
       <c r="M25">
         <v>7</v>
@@ -3353,13 +3452,13 @@
         <v>-19159930</v>
       </c>
       <c r="O25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R25" s="1">
         <v>44396</v>
@@ -3371,51 +3470,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W25">
         <v>7.19</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>1</v>
       </c>
       <c r="Z25">
-        <v>931</v>
+        <v>969</v>
       </c>
       <c r="AD25">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG25">
-        <v>0.19697999999999999</v>
+        <v>0.18723329999999999</v>
       </c>
       <c r="AH25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI25">
         <v>1</v>
       </c>
       <c r="AJ25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK25">
-        <v>7.19</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>1301</v>
@@ -3427,28 +3526,28 @@
         <v>16.93</v>
       </c>
       <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
         <v>39</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
       </c>
       <c r="G26">
         <v>60.01</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I26">
         <v>9</v>
       </c>
       <c r="J26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
         <v>42</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>43</v>
       </c>
       <c r="M26">
         <v>7</v>
@@ -3457,13 +3556,13 @@
         <v>-19159930</v>
       </c>
       <c r="O26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R26" s="1">
         <v>44396</v>
@@ -3475,13 +3574,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W26">
-        <v>7.19</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -3490,36 +3589,36 @@
         <v>1</v>
       </c>
       <c r="Z26">
-        <v>969</v>
+        <v>4974</v>
       </c>
       <c r="AD26">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AE26" t="s">
         <v>49</v>
       </c>
       <c r="AF26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG26">
-        <v>0.18723329999999999</v>
+        <v>0.2155667</v>
       </c>
       <c r="AH26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI26">
         <v>1</v>
       </c>
       <c r="AJ26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>1301</v>
@@ -3531,28 +3630,28 @@
         <v>16.93</v>
       </c>
       <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
         <v>39</v>
-      </c>
-      <c r="F27" t="s">
-        <v>40</v>
       </c>
       <c r="G27">
         <v>60.01</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I27">
         <v>9</v>
       </c>
       <c r="J27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
         <v>42</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
-        <v>43</v>
       </c>
       <c r="M27">
         <v>7</v>
@@ -3561,13 +3660,13 @@
         <v>-19159930</v>
       </c>
       <c r="O27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R27" s="1">
         <v>44396</v>
@@ -3579,51 +3678,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W27">
-        <v>4.3600000000000003</v>
+        <v>6.87</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>1</v>
       </c>
       <c r="Z27">
-        <v>4974</v>
+        <v>2930</v>
       </c>
       <c r="AD27">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG27">
-        <v>0.2155667</v>
+        <v>0.19731000000000001</v>
       </c>
       <c r="AH27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI27">
         <v>1</v>
       </c>
       <c r="AJ27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK27">
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>1301</v>
@@ -3635,28 +3734,28 @@
         <v>16.93</v>
       </c>
       <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
         <v>39</v>
-      </c>
-      <c r="F28" t="s">
-        <v>40</v>
       </c>
       <c r="G28">
         <v>60.01</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I28">
         <v>9</v>
       </c>
       <c r="J28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
         <v>42</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
-        <v>43</v>
       </c>
       <c r="M28">
         <v>7</v>
@@ -3665,13 +3764,13 @@
         <v>-19159930</v>
       </c>
       <c r="O28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R28" s="1">
         <v>44396</v>
@@ -3683,51 +3782,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W28">
-        <v>6.87</v>
+        <v>5.62</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>1</v>
       </c>
       <c r="Z28">
-        <v>2930</v>
+        <v>1687</v>
       </c>
       <c r="AD28">
         <v>12</v>
       </c>
       <c r="AE28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG28">
-        <v>0.19731000000000001</v>
+        <v>0.20169999999999999</v>
       </c>
       <c r="AH28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI28">
         <v>1</v>
       </c>
       <c r="AJ28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>1301</v>
@@ -3739,28 +3838,28 @@
         <v>16.93</v>
       </c>
       <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
         <v>39</v>
-      </c>
-      <c r="F29" t="s">
-        <v>40</v>
       </c>
       <c r="G29">
         <v>60.01</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I29">
         <v>9</v>
       </c>
       <c r="J29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
         <v>42</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>43</v>
       </c>
       <c r="M29">
         <v>7</v>
@@ -3769,13 +3868,13 @@
         <v>-19159930</v>
       </c>
       <c r="O29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R29" s="1">
         <v>44396</v>
@@ -3787,51 +3886,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W29">
-        <v>5.62</v>
+        <v>7.19</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>1</v>
       </c>
       <c r="Z29">
-        <v>1687</v>
+        <v>2190</v>
       </c>
       <c r="AD29">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AE29" t="s">
         <v>49</v>
       </c>
       <c r="AF29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG29">
-        <v>0.20169999999999999</v>
+        <v>0.20330999999999999</v>
       </c>
       <c r="AH29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI29">
         <v>1</v>
       </c>
       <c r="AJ29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>7.19</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>1301</v>
@@ -3843,28 +3942,28 @@
         <v>16.93</v>
       </c>
       <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
         <v>39</v>
-      </c>
-      <c r="F30" t="s">
-        <v>40</v>
       </c>
       <c r="G30">
         <v>60.01</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I30">
         <v>9</v>
       </c>
       <c r="J30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
         <v>42</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>43</v>
       </c>
       <c r="M30">
         <v>7</v>
@@ -3873,13 +3972,13 @@
         <v>-19159930</v>
       </c>
       <c r="O30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R30" s="1">
         <v>44396</v>
@@ -3891,51 +3990,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W30">
-        <v>7.19</v>
+        <v>4.67</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>1</v>
       </c>
       <c r="Z30">
-        <v>2190</v>
+        <v>3873</v>
       </c>
       <c r="AD30">
         <v>88</v>
       </c>
       <c r="AE30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG30">
-        <v>0.20330999999999999</v>
+        <v>0.19113330000000001</v>
       </c>
       <c r="AH30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI30">
         <v>1</v>
       </c>
       <c r="AJ30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK30">
-        <v>7.19</v>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>1301</v>
@@ -3947,28 +4046,28 @@
         <v>16.93</v>
       </c>
       <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
         <v>39</v>
-      </c>
-      <c r="F31" t="s">
-        <v>40</v>
       </c>
       <c r="G31">
         <v>60.01</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I31">
         <v>9</v>
       </c>
       <c r="J31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
         <v>42</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
-        <v>43</v>
       </c>
       <c r="M31">
         <v>7</v>
@@ -3977,13 +4076,13 @@
         <v>-19159930</v>
       </c>
       <c r="O31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R31" s="1">
         <v>44396</v>
@@ -3995,13 +4094,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W31">
-        <v>4.67</v>
+        <v>5.93</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -4010,36 +4109,36 @@
         <v>1</v>
       </c>
       <c r="Z31">
-        <v>3873</v>
+        <v>4950</v>
       </c>
       <c r="AD31">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AE31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG31">
-        <v>0.19113330000000001</v>
+        <v>0.2044667</v>
       </c>
       <c r="AH31">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI31">
         <v>1</v>
       </c>
       <c r="AJ31">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK31">
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>1301</v>
@@ -4051,28 +4150,28 @@
         <v>16.93</v>
       </c>
       <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
         <v>39</v>
-      </c>
-      <c r="F32" t="s">
-        <v>40</v>
       </c>
       <c r="G32">
         <v>60.01</v>
       </c>
       <c r="H32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I32">
         <v>9</v>
       </c>
       <c r="J32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
         <v>42</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>43</v>
       </c>
       <c r="M32">
         <v>7</v>
@@ -4081,13 +4180,13 @@
         <v>-19159930</v>
       </c>
       <c r="O32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R32" s="1">
         <v>44396</v>
@@ -4099,51 +4198,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W32">
-        <v>5.93</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32">
         <v>1</v>
       </c>
       <c r="Z32">
-        <v>4950</v>
+        <v>1160</v>
       </c>
       <c r="AD32">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AE32" t="s">
         <v>49</v>
       </c>
       <c r="AF32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG32">
-        <v>0.2044667</v>
+        <v>0.20981</v>
       </c>
       <c r="AH32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI32">
         <v>1</v>
       </c>
       <c r="AJ32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>1301</v>
@@ -4155,28 +4254,28 @@
         <v>16.93</v>
       </c>
       <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
         <v>39</v>
-      </c>
-      <c r="F33" t="s">
-        <v>40</v>
       </c>
       <c r="G33">
         <v>60.01</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I33">
         <v>9</v>
       </c>
       <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
         <v>42</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
-        <v>43</v>
       </c>
       <c r="M33">
         <v>7</v>
@@ -4185,13 +4284,13 @@
         <v>-19159930</v>
       </c>
       <c r="O33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R33" s="1">
         <v>44396</v>
@@ -4203,51 +4302,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W33">
-        <v>4.3600000000000003</v>
+        <v>6.56</v>
       </c>
       <c r="X33">
         <v>1</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>1160</v>
+        <v>4938</v>
       </c>
       <c r="AD33">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AE33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG33">
-        <v>0.20981</v>
+        <v>0.2282391</v>
       </c>
       <c r="AH33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI33">
         <v>1</v>
       </c>
       <c r="AJ33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK33">
-        <v>4.3600000000000003</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>1301</v>
@@ -4259,28 +4358,28 @@
         <v>16.93</v>
       </c>
       <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
         <v>39</v>
-      </c>
-      <c r="F34" t="s">
-        <v>40</v>
       </c>
       <c r="G34">
         <v>60.01</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I34">
         <v>9</v>
       </c>
       <c r="J34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
         <v>42</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34" t="s">
-        <v>43</v>
       </c>
       <c r="M34">
         <v>7</v>
@@ -4289,13 +4388,13 @@
         <v>-19159930</v>
       </c>
       <c r="O34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R34" s="1">
         <v>44396</v>
@@ -4307,22 +4406,22 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W34">
-        <v>6.56</v>
+        <v>3.1</v>
       </c>
       <c r="X34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34">
-        <v>4938</v>
+        <v>1142</v>
       </c>
       <c r="AD34">
         <v>50</v>
@@ -4331,27 +4430,27 @@
         <v>49</v>
       </c>
       <c r="AF34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG34">
-        <v>0.2282391</v>
+        <v>0.19613330000000001</v>
       </c>
       <c r="AH34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI34">
         <v>1</v>
       </c>
       <c r="AJ34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK34">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>1301</v>
@@ -4363,28 +4462,28 @@
         <v>16.93</v>
       </c>
       <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
         <v>39</v>
-      </c>
-      <c r="F35" t="s">
-        <v>40</v>
       </c>
       <c r="G35">
         <v>60.01</v>
       </c>
       <c r="H35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I35">
         <v>9</v>
       </c>
       <c r="J35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
         <v>42</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" t="s">
-        <v>43</v>
       </c>
       <c r="M35">
         <v>7</v>
@@ -4393,13 +4492,13 @@
         <v>-19159930</v>
       </c>
       <c r="O35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R35" s="1">
         <v>44396</v>
@@ -4411,51 +4510,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V35">
+        <v>34</v>
+      </c>
+      <c r="W35">
+        <v>2.48</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>2065</v>
+      </c>
+      <c r="AD35">
+        <v>12</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF35" t="s">
         <v>33</v>
       </c>
-      <c r="W35">
-        <v>3.1</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-      <c r="Z35">
-        <v>1142</v>
-      </c>
-      <c r="AD35">
-        <v>50</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>34</v>
-      </c>
       <c r="AG35">
-        <v>0.19613330000000001</v>
+        <v>0.1994667</v>
       </c>
       <c r="AH35">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI35">
         <v>1</v>
       </c>
       <c r="AJ35">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK35">
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>1301</v>
@@ -4467,28 +4566,28 @@
         <v>16.93</v>
       </c>
       <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
         <v>39</v>
-      </c>
-      <c r="F36" t="s">
-        <v>40</v>
       </c>
       <c r="G36">
         <v>60.01</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I36">
         <v>9</v>
       </c>
       <c r="J36" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
         <v>42</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" t="s">
-        <v>43</v>
       </c>
       <c r="M36">
         <v>7</v>
@@ -4497,13 +4596,13 @@
         <v>-19159930</v>
       </c>
       <c r="O36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R36" s="1">
         <v>44396</v>
@@ -4515,13 +4614,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W36">
-        <v>2.48</v>
+        <v>5.3</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -4530,36 +4629,36 @@
         <v>1</v>
       </c>
       <c r="Z36">
-        <v>2065</v>
+        <v>4451</v>
       </c>
       <c r="AD36">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AE36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG36">
-        <v>0.1994667</v>
+        <v>0.2044667</v>
       </c>
       <c r="AH36">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI36">
         <v>1</v>
       </c>
       <c r="AJ36">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AK36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>1301</v>
@@ -4571,28 +4670,28 @@
         <v>16.93</v>
       </c>
       <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
         <v>39</v>
-      </c>
-      <c r="F37" t="s">
-        <v>40</v>
       </c>
       <c r="G37">
         <v>60.01</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I37">
         <v>9</v>
       </c>
       <c r="J37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
         <v>42</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" t="s">
-        <v>43</v>
       </c>
       <c r="M37">
         <v>7</v>
@@ -4601,13 +4700,13 @@
         <v>-19159930</v>
       </c>
       <c r="O37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R37" s="1">
         <v>44396</v>
@@ -4619,51 +4718,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W37">
-        <v>5.3</v>
+        <v>5.93</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37">
         <v>1</v>
       </c>
       <c r="Z37">
-        <v>4451</v>
+        <v>1985</v>
       </c>
       <c r="AD37">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AE37" t="s">
         <v>49</v>
       </c>
       <c r="AF37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG37">
-        <v>0.2044667</v>
+        <v>0.19880999999999999</v>
       </c>
       <c r="AH37">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI37">
         <v>1</v>
       </c>
       <c r="AJ37">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK37">
-        <v>0</v>
+        <v>5.93</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>1301</v>
@@ -4675,28 +4774,28 @@
         <v>16.93</v>
       </c>
       <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
         <v>39</v>
-      </c>
-      <c r="F38" t="s">
-        <v>40</v>
       </c>
       <c r="G38">
         <v>60.01</v>
       </c>
       <c r="H38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I38">
         <v>9</v>
       </c>
       <c r="J38" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
         <v>42</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" t="s">
-        <v>43</v>
       </c>
       <c r="M38">
         <v>7</v>
@@ -4705,13 +4804,13 @@
         <v>-19159930</v>
       </c>
       <c r="O38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R38" s="1">
         <v>44396</v>
@@ -4723,13 +4822,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W38">
-        <v>5.93</v>
+        <v>5.62</v>
       </c>
       <c r="X38">
         <v>1</v>
@@ -4738,36 +4837,36 @@
         <v>1</v>
       </c>
       <c r="Z38">
-        <v>1985</v>
+        <v>3342</v>
       </c>
       <c r="AD38">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AE38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG38">
-        <v>0.19880999999999999</v>
+        <v>0.20615</v>
       </c>
       <c r="AH38">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI38">
         <v>1</v>
       </c>
       <c r="AJ38">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AK38">
-        <v>5.93</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>1301</v>
@@ -4779,28 +4878,28 @@
         <v>16.93</v>
       </c>
       <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
         <v>39</v>
-      </c>
-      <c r="F39" t="s">
-        <v>40</v>
       </c>
       <c r="G39">
         <v>60.01</v>
       </c>
       <c r="H39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I39">
         <v>9</v>
       </c>
       <c r="J39" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
         <v>42</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
-        <v>43</v>
       </c>
       <c r="M39">
         <v>7</v>
@@ -4809,13 +4908,13 @@
         <v>-19159930</v>
       </c>
       <c r="O39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R39" s="1">
         <v>44396</v>
@@ -4827,51 +4926,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W39">
-        <v>5.62</v>
+        <v>2.16</v>
       </c>
       <c r="X39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>1</v>
       </c>
       <c r="Z39">
-        <v>3342</v>
+        <v>1536</v>
       </c>
       <c r="AD39">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AE39" t="s">
         <v>49</v>
       </c>
       <c r="AF39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG39">
+        <v>0.18946669999999999</v>
+      </c>
+      <c r="AH39">
         <v>34</v>
       </c>
-      <c r="AG39">
-        <v>0.20615</v>
-      </c>
-      <c r="AH39">
-        <v>33</v>
-      </c>
       <c r="AI39">
         <v>1</v>
       </c>
       <c r="AJ39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK39">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>1301</v>
@@ -4883,28 +4982,28 @@
         <v>16.93</v>
       </c>
       <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
         <v>39</v>
-      </c>
-      <c r="F40" t="s">
-        <v>40</v>
       </c>
       <c r="G40">
         <v>60.01</v>
       </c>
       <c r="H40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I40">
         <v>9</v>
       </c>
       <c r="J40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
         <v>42</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>43</v>
       </c>
       <c r="M40">
         <v>7</v>
@@ -4913,13 +5012,13 @@
         <v>-19159930</v>
       </c>
       <c r="O40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R40" s="1">
         <v>44396</v>
@@ -4931,13 +5030,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W40">
-        <v>2.16</v>
+        <v>6.24</v>
       </c>
       <c r="X40">
         <v>0</v>
@@ -4946,36 +5045,36 @@
         <v>1</v>
       </c>
       <c r="Z40">
-        <v>1536</v>
+        <v>1283</v>
       </c>
       <c r="AD40">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AE40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG40">
-        <v>0.18946669999999999</v>
+        <v>0.1916667</v>
       </c>
       <c r="AH40">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI40">
         <v>1</v>
       </c>
       <c r="AJ40">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK40">
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>1301</v>
@@ -4987,28 +5086,28 @@
         <v>16.93</v>
       </c>
       <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" t="s">
         <v>39</v>
-      </c>
-      <c r="F41" t="s">
-        <v>40</v>
       </c>
       <c r="G41">
         <v>60.01</v>
       </c>
       <c r="H41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I41">
         <v>9</v>
       </c>
       <c r="J41" t="s">
+        <v>41</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
         <v>42</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
-        <v>43</v>
       </c>
       <c r="M41">
         <v>7</v>
@@ -5017,13 +5116,13 @@
         <v>-19159930</v>
       </c>
       <c r="O41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R41" s="1">
         <v>44396</v>
@@ -5035,13 +5134,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W41">
-        <v>6.24</v>
+        <v>6.56</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -5050,36 +5149,36 @@
         <v>1</v>
       </c>
       <c r="Z41">
-        <v>1283</v>
+        <v>2359</v>
       </c>
       <c r="AD41">
         <v>12</v>
       </c>
       <c r="AE41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG41">
-        <v>0.1916667</v>
+        <v>0.19613330000000001</v>
       </c>
       <c r="AH41">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AI41">
         <v>1</v>
       </c>
       <c r="AJ41">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AK41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>1301</v>
@@ -5091,28 +5190,28 @@
         <v>16.93</v>
       </c>
       <c r="E42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" t="s">
         <v>39</v>
-      </c>
-      <c r="F42" t="s">
-        <v>40</v>
       </c>
       <c r="G42">
         <v>60.01</v>
       </c>
       <c r="H42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I42">
         <v>9</v>
       </c>
       <c r="J42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
         <v>42</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
-        <v>43</v>
       </c>
       <c r="M42">
         <v>7</v>
@@ -5121,13 +5220,13 @@
         <v>-19159930</v>
       </c>
       <c r="O42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R42" s="1">
         <v>44396</v>
@@ -5139,51 +5238,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W42">
         <v>6.56</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>1</v>
       </c>
       <c r="Z42">
-        <v>2359</v>
+        <v>1866</v>
       </c>
       <c r="AD42">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AE42" t="s">
         <v>49</v>
       </c>
       <c r="AF42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG42">
-        <v>0.19613330000000001</v>
+        <v>0.19947999999999999</v>
       </c>
       <c r="AH42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AI42">
         <v>1</v>
       </c>
       <c r="AJ42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK42">
-        <v>0</v>
+        <v>6.56</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>1301</v>
@@ -5195,28 +5294,28 @@
         <v>16.93</v>
       </c>
       <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
         <v>39</v>
-      </c>
-      <c r="F43" t="s">
-        <v>40</v>
       </c>
       <c r="G43">
         <v>60.01</v>
       </c>
       <c r="H43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I43">
         <v>9</v>
       </c>
       <c r="J43" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
         <v>42</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
-        <v>43</v>
       </c>
       <c r="M43">
         <v>7</v>
@@ -5225,13 +5324,13 @@
         <v>-19159930</v>
       </c>
       <c r="O43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R43" s="1">
         <v>44396</v>
@@ -5243,51 +5342,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W43">
-        <v>6.56</v>
+        <v>3.73</v>
       </c>
       <c r="X43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43">
-        <v>1866</v>
+        <v>6681</v>
       </c>
       <c r="AD43">
         <v>88</v>
       </c>
       <c r="AE43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG43">
-        <v>0.19947999999999999</v>
+        <v>0.22578490000000001</v>
       </c>
       <c r="AH43">
+        <v>38</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
+      </c>
+      <c r="AJ43">
+        <v>38</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>37</v>
-      </c>
-      <c r="AI43">
-        <v>1</v>
-      </c>
-      <c r="AJ43">
-        <v>37</v>
-      </c>
-      <c r="AK43">
-        <v>6.56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>38</v>
       </c>
       <c r="B44">
         <v>1301</v>
@@ -5299,28 +5398,28 @@
         <v>16.93</v>
       </c>
       <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
         <v>39</v>
-      </c>
-      <c r="F44" t="s">
-        <v>40</v>
       </c>
       <c r="G44">
         <v>60.01</v>
       </c>
       <c r="H44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I44">
         <v>9</v>
       </c>
       <c r="J44" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
         <v>42</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44" t="s">
-        <v>43</v>
       </c>
       <c r="M44">
         <v>7</v>
@@ -5329,13 +5428,13 @@
         <v>-19159930</v>
       </c>
       <c r="O44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R44" s="1">
         <v>44396</v>
@@ -5347,51 +5446,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W44">
-        <v>3.73</v>
+        <v>6.24</v>
       </c>
       <c r="X44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44">
-        <v>6681</v>
+        <v>1850</v>
       </c>
       <c r="AD44">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AE44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG44">
-        <v>0.22578490000000001</v>
+        <v>0.18166669999999999</v>
       </c>
       <c r="AH44">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI44">
         <v>1</v>
       </c>
       <c r="AJ44">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK44">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45">
         <v>1301</v>
@@ -5403,28 +5502,28 @@
         <v>16.93</v>
       </c>
       <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
         <v>39</v>
-      </c>
-      <c r="F45" t="s">
-        <v>40</v>
       </c>
       <c r="G45">
         <v>60.01</v>
       </c>
       <c r="H45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I45">
         <v>9</v>
       </c>
       <c r="J45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
         <v>42</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
-        <v>43</v>
       </c>
       <c r="M45">
         <v>7</v>
@@ -5433,13 +5532,13 @@
         <v>-19159930</v>
       </c>
       <c r="O45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R45" s="1">
         <v>44396</v>
@@ -5451,13 +5550,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W45">
-        <v>6.24</v>
+        <v>2.79</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -5466,36 +5565,36 @@
         <v>1</v>
       </c>
       <c r="Z45">
-        <v>1850</v>
+        <v>1731</v>
       </c>
       <c r="AD45">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AE45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG45">
-        <v>0.18166669999999999</v>
+        <v>0.18833330000000001</v>
       </c>
       <c r="AH45">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI45">
         <v>1</v>
       </c>
       <c r="AJ45">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK45">
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46">
         <v>1301</v>
@@ -5507,28 +5606,28 @@
         <v>16.93</v>
       </c>
       <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s">
         <v>39</v>
-      </c>
-      <c r="F46" t="s">
-        <v>40</v>
       </c>
       <c r="G46">
         <v>60.01</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I46">
         <v>9</v>
       </c>
       <c r="J46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
         <v>42</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
-        <v>43</v>
       </c>
       <c r="M46">
         <v>7</v>
@@ -5537,13 +5636,13 @@
         <v>-19159930</v>
       </c>
       <c r="O46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R46" s="1">
         <v>44396</v>
@@ -5555,13 +5654,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W46">
-        <v>2.79</v>
+        <v>4.99</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -5570,36 +5669,36 @@
         <v>1</v>
       </c>
       <c r="Z46">
-        <v>1731</v>
+        <v>1321</v>
       </c>
       <c r="AD46">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AE46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG46">
-        <v>0.18833330000000001</v>
+        <v>0.19943330000000001</v>
       </c>
       <c r="AH46">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI46">
         <v>1</v>
       </c>
       <c r="AJ46">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AK46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47">
         <v>1301</v>
@@ -5611,28 +5710,28 @@
         <v>16.93</v>
       </c>
       <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
         <v>39</v>
-      </c>
-      <c r="F47" t="s">
-        <v>40</v>
       </c>
       <c r="G47">
         <v>60.01</v>
       </c>
       <c r="H47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I47">
         <v>9</v>
       </c>
       <c r="J47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
         <v>42</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47" t="s">
-        <v>43</v>
       </c>
       <c r="M47">
         <v>7</v>
@@ -5641,13 +5740,13 @@
         <v>-19159930</v>
       </c>
       <c r="O47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R47" s="1">
         <v>44396</v>
@@ -5659,13 +5758,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U47" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47">
         <v>46</v>
       </c>
-      <c r="V47">
-        <v>45</v>
-      </c>
       <c r="W47">
-        <v>4.99</v>
+        <v>4.67</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -5674,36 +5773,36 @@
         <v>1</v>
       </c>
       <c r="Z47">
-        <v>1321</v>
+        <v>1482</v>
       </c>
       <c r="AD47">
         <v>12</v>
       </c>
       <c r="AE47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG47">
-        <v>0.19943330000000001</v>
+        <v>0.1883667</v>
       </c>
       <c r="AH47">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI47">
         <v>1</v>
       </c>
       <c r="AJ47">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>1301</v>
@@ -5715,28 +5814,28 @@
         <v>16.93</v>
       </c>
       <c r="E48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s">
         <v>39</v>
-      </c>
-      <c r="F48" t="s">
-        <v>40</v>
       </c>
       <c r="G48">
         <v>60.01</v>
       </c>
       <c r="H48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I48">
         <v>9</v>
       </c>
       <c r="J48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
         <v>42</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>43</v>
       </c>
       <c r="M48">
         <v>7</v>
@@ -5745,13 +5844,13 @@
         <v>-19159930</v>
       </c>
       <c r="O48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R48" s="1">
         <v>44396</v>
@@ -5763,13 +5862,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W48">
-        <v>4.67</v>
+        <v>2.16</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -5778,36 +5877,36 @@
         <v>1</v>
       </c>
       <c r="Z48">
-        <v>1482</v>
+        <v>1361</v>
       </c>
       <c r="AD48">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AE48" t="s">
         <v>49</v>
       </c>
       <c r="AF48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG48">
-        <v>0.1883667</v>
+        <v>0.1978</v>
       </c>
       <c r="AH48">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI48">
         <v>1</v>
       </c>
       <c r="AJ48">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK48">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49">
         <v>1301</v>
@@ -5819,28 +5918,28 @@
         <v>16.93</v>
       </c>
       <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
         <v>39</v>
-      </c>
-      <c r="F49" t="s">
-        <v>40</v>
       </c>
       <c r="G49">
         <v>60.01</v>
       </c>
       <c r="H49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I49">
         <v>9</v>
       </c>
       <c r="J49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
         <v>42</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
-        <v>43</v>
       </c>
       <c r="M49">
         <v>7</v>
@@ -5849,13 +5948,13 @@
         <v>-19159930</v>
       </c>
       <c r="O49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R49" s="1">
         <v>44396</v>
@@ -5867,13 +5966,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W49">
-        <v>2.16</v>
+        <v>3.42</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -5882,36 +5981,36 @@
         <v>1</v>
       </c>
       <c r="Z49">
-        <v>1361</v>
+        <v>2978</v>
       </c>
       <c r="AD49">
         <v>50</v>
       </c>
       <c r="AE49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG49">
-        <v>0.1978</v>
+        <v>0.19</v>
       </c>
       <c r="AH49">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI49">
         <v>1</v>
       </c>
       <c r="AJ49">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK49">
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50">
         <v>1301</v>
@@ -5923,28 +6022,28 @@
         <v>16.93</v>
       </c>
       <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s">
         <v>39</v>
-      </c>
-      <c r="F50" t="s">
-        <v>40</v>
       </c>
       <c r="G50">
         <v>60.01</v>
       </c>
       <c r="H50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I50">
         <v>9</v>
       </c>
       <c r="J50" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
         <v>42</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" t="s">
-        <v>43</v>
       </c>
       <c r="M50">
         <v>7</v>
@@ -5953,13 +6052,13 @@
         <v>-19159930</v>
       </c>
       <c r="O50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R50" s="1">
         <v>44396</v>
@@ -5971,13 +6070,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W50">
-        <v>3.42</v>
+        <v>2.79</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -5986,36 +6085,36 @@
         <v>1</v>
       </c>
       <c r="Z50">
-        <v>2978</v>
+        <v>1324</v>
       </c>
       <c r="AD50">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AE50" t="s">
         <v>49</v>
       </c>
       <c r="AF50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG50">
-        <v>0.19</v>
+        <v>0.17946670000000001</v>
       </c>
       <c r="AH50">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI50">
         <v>1</v>
       </c>
       <c r="AJ50">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK50">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51">
         <v>1301</v>
@@ -6027,28 +6126,28 @@
         <v>16.93</v>
       </c>
       <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
         <v>39</v>
-      </c>
-      <c r="F51" t="s">
-        <v>40</v>
       </c>
       <c r="G51">
         <v>60.01</v>
       </c>
       <c r="H51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I51">
         <v>9</v>
       </c>
       <c r="J51" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
         <v>42</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
-        <v>43</v>
       </c>
       <c r="M51">
         <v>7</v>
@@ -6057,13 +6156,13 @@
         <v>-19159930</v>
       </c>
       <c r="O51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R51" s="1">
         <v>44396</v>
@@ -6075,51 +6174,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U51" t="s">
+        <v>45</v>
+      </c>
+      <c r="V51">
+        <v>50</v>
+      </c>
+      <c r="W51">
+        <v>4.99</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>1588</v>
+      </c>
+      <c r="AD51">
+        <v>88</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG51">
+        <v>0.20197999999999999</v>
+      </c>
+      <c r="AH51">
         <v>46</v>
       </c>
-      <c r="V51">
-        <v>49</v>
-      </c>
-      <c r="W51">
-        <v>2.79</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>1</v>
-      </c>
-      <c r="Z51">
-        <v>1324</v>
-      </c>
-      <c r="AD51">
-        <v>12</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG51">
-        <v>0.17946670000000001</v>
-      </c>
-      <c r="AH51">
-        <v>45</v>
-      </c>
       <c r="AI51">
         <v>1</v>
       </c>
       <c r="AJ51">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK51">
-        <v>1.75</v>
+        <v>4.99</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52">
         <v>1301</v>
@@ -6131,28 +6230,28 @@
         <v>16.93</v>
       </c>
       <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
         <v>39</v>
-      </c>
-      <c r="F52" t="s">
-        <v>40</v>
       </c>
       <c r="G52">
         <v>60.01</v>
       </c>
       <c r="H52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I52">
         <v>9</v>
       </c>
       <c r="J52" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
         <v>42</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
-        <v>43</v>
       </c>
       <c r="M52">
         <v>7</v>
@@ -6161,13 +6260,13 @@
         <v>-19159930</v>
       </c>
       <c r="O52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R52" s="1">
         <v>44396</v>
@@ -6179,51 +6278,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W52">
-        <v>4.99</v>
+        <v>4.05</v>
       </c>
       <c r="X52">
         <v>1</v>
       </c>
       <c r="Y52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>1588</v>
+        <v>2164</v>
       </c>
       <c r="AD52">
         <v>88</v>
       </c>
       <c r="AE52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG52">
-        <v>0.20197999999999999</v>
+        <v>0.21210100000000001</v>
       </c>
       <c r="AH52">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI52">
         <v>1</v>
       </c>
       <c r="AJ52">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AK52">
-        <v>4.99</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53">
         <v>1301</v>
@@ -6235,28 +6334,28 @@
         <v>16.93</v>
       </c>
       <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
         <v>39</v>
-      </c>
-      <c r="F53" t="s">
-        <v>40</v>
       </c>
       <c r="G53">
         <v>60.01</v>
       </c>
       <c r="H53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I53">
         <v>9</v>
       </c>
       <c r="J53" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
         <v>42</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53" t="s">
-        <v>43</v>
       </c>
       <c r="M53">
         <v>7</v>
@@ -6265,13 +6364,13 @@
         <v>-19159930</v>
       </c>
       <c r="O53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R53" s="1">
         <v>44396</v>
@@ -6283,51 +6382,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W53">
-        <v>4.05</v>
+        <v>5.93</v>
       </c>
       <c r="X53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53">
-        <v>2164</v>
+        <v>1127</v>
       </c>
       <c r="AD53">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AE53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG53">
-        <v>0.21210100000000001</v>
+        <v>0.1827667</v>
       </c>
       <c r="AH53">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI53">
         <v>1</v>
       </c>
       <c r="AJ53">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54">
         <v>1301</v>
@@ -6339,28 +6438,28 @@
         <v>16.93</v>
       </c>
       <c r="E54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" t="s">
         <v>39</v>
-      </c>
-      <c r="F54" t="s">
-        <v>40</v>
       </c>
       <c r="G54">
         <v>60.01</v>
       </c>
       <c r="H54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I54">
         <v>9</v>
       </c>
       <c r="J54" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
         <v>42</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54" t="s">
-        <v>43</v>
       </c>
       <c r="M54">
         <v>7</v>
@@ -6369,13 +6468,13 @@
         <v>-19159930</v>
       </c>
       <c r="O54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R54" s="1">
         <v>44396</v>
@@ -6387,51 +6486,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W54">
-        <v>5.93</v>
+        <v>6.87</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54">
         <v>1</v>
       </c>
       <c r="Z54">
-        <v>1127</v>
+        <v>3859</v>
       </c>
       <c r="AD54">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AE54" t="s">
         <v>49</v>
       </c>
       <c r="AF54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG54">
-        <v>0.1827667</v>
+        <v>0.20513999999999999</v>
       </c>
       <c r="AH54">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI54">
         <v>1</v>
       </c>
       <c r="AJ54">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AK54">
-        <v>0</v>
+        <v>6.87</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>1301</v>
@@ -6443,28 +6542,28 @@
         <v>16.93</v>
       </c>
       <c r="E55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" t="s">
         <v>39</v>
-      </c>
-      <c r="F55" t="s">
-        <v>40</v>
       </c>
       <c r="G55">
         <v>60.01</v>
       </c>
       <c r="H55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I55">
         <v>9</v>
       </c>
       <c r="J55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
         <v>42</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55" t="s">
-        <v>43</v>
       </c>
       <c r="M55">
         <v>7</v>
@@ -6473,13 +6572,13 @@
         <v>-19159930</v>
       </c>
       <c r="O55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R55" s="1">
         <v>44396</v>
@@ -6491,51 +6590,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W55">
-        <v>6.87</v>
+        <v>3.42</v>
       </c>
       <c r="X55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>1</v>
       </c>
       <c r="Z55">
-        <v>3859</v>
+        <v>1035</v>
       </c>
       <c r="AD55">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AE55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG55">
+        <v>0.18446670000000001</v>
+      </c>
+      <c r="AH55">
         <v>50</v>
       </c>
-      <c r="AF55" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG55">
-        <v>0.20513999999999999</v>
-      </c>
-      <c r="AH55">
-        <v>49</v>
-      </c>
       <c r="AI55">
         <v>1</v>
       </c>
       <c r="AJ55">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AK55">
-        <v>6.87</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56">
         <v>1301</v>
@@ -6547,28 +6646,28 @@
         <v>16.93</v>
       </c>
       <c r="E56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" t="s">
         <v>39</v>
-      </c>
-      <c r="F56" t="s">
-        <v>40</v>
       </c>
       <c r="G56">
         <v>60.01</v>
       </c>
       <c r="H56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I56">
         <v>9</v>
       </c>
       <c r="J56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
         <v>42</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56" t="s">
-        <v>43</v>
       </c>
       <c r="M56">
         <v>7</v>
@@ -6577,13 +6676,13 @@
         <v>-19159930</v>
       </c>
       <c r="O56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R56" s="1">
         <v>44396</v>
@@ -6595,13 +6694,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W56">
-        <v>3.42</v>
+        <v>2.79</v>
       </c>
       <c r="X56">
         <v>0</v>
@@ -6610,36 +6709,36 @@
         <v>1</v>
       </c>
       <c r="Z56">
-        <v>1035</v>
+        <v>1193</v>
       </c>
       <c r="AD56">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AE56" t="s">
         <v>49</v>
       </c>
       <c r="AF56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG56">
-        <v>0.18446670000000001</v>
+        <v>0.2194333</v>
       </c>
       <c r="AH56">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI56">
         <v>1</v>
       </c>
       <c r="AJ56">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK56">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57">
         <v>1301</v>
@@ -6651,28 +6750,28 @@
         <v>16.93</v>
       </c>
       <c r="E57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" t="s">
         <v>39</v>
-      </c>
-      <c r="F57" t="s">
-        <v>40</v>
       </c>
       <c r="G57">
         <v>60.01</v>
       </c>
       <c r="H57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I57">
         <v>9</v>
       </c>
       <c r="J57" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
         <v>42</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
-        <v>43</v>
       </c>
       <c r="M57">
         <v>7</v>
@@ -6681,13 +6780,13 @@
         <v>-19159930</v>
       </c>
       <c r="O57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R57" s="1">
         <v>44396</v>
@@ -6699,13 +6798,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W57">
-        <v>2.79</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -6714,36 +6813,36 @@
         <v>1</v>
       </c>
       <c r="Z57">
-        <v>1193</v>
+        <v>2303</v>
       </c>
       <c r="AD57">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AE57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG57">
-        <v>0.2194333</v>
+        <v>0.22276670000000001</v>
       </c>
       <c r="AH57">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI57">
         <v>1</v>
       </c>
       <c r="AJ57">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK57">
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58">
         <v>1301</v>
@@ -6755,28 +6854,28 @@
         <v>16.93</v>
       </c>
       <c r="E58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" t="s">
         <v>39</v>
-      </c>
-      <c r="F58" t="s">
-        <v>40</v>
       </c>
       <c r="G58">
         <v>60.01</v>
       </c>
       <c r="H58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I58">
         <v>9</v>
       </c>
       <c r="J58" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
         <v>42</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>43</v>
       </c>
       <c r="M58">
         <v>7</v>
@@ -6785,13 +6884,13 @@
         <v>-19159930</v>
       </c>
       <c r="O58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R58" s="1">
         <v>44396</v>
@@ -6803,51 +6902,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W58">
-        <v>4.5199999999999996</v>
+        <v>6.09</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58">
         <v>1</v>
       </c>
       <c r="Z58">
-        <v>2303</v>
+        <v>1789</v>
       </c>
       <c r="AD58">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AE58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG58">
-        <v>0.22276670000000001</v>
+        <v>0.19198000000000001</v>
       </c>
       <c r="AH58">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI58">
         <v>1</v>
       </c>
       <c r="AJ58">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AK58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>1301</v>
@@ -6859,28 +6958,28 @@
         <v>16.93</v>
       </c>
       <c r="E59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" t="s">
         <v>39</v>
-      </c>
-      <c r="F59" t="s">
-        <v>40</v>
       </c>
       <c r="G59">
         <v>60.01</v>
       </c>
       <c r="H59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I59">
         <v>9</v>
       </c>
       <c r="J59" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
         <v>42</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59" t="s">
-        <v>43</v>
       </c>
       <c r="M59">
         <v>7</v>
@@ -6889,13 +6988,13 @@
         <v>-19159930</v>
       </c>
       <c r="O59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R59" s="1">
         <v>44396</v>
@@ -6907,51 +7006,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W59">
-        <v>6.09</v>
+        <v>6.72</v>
       </c>
       <c r="X59">
         <v>1</v>
       </c>
       <c r="Y59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z59">
-        <v>1789</v>
+        <v>2333</v>
       </c>
       <c r="AD59">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AE59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG59">
-        <v>0.19198000000000001</v>
+        <v>0.21647420000000001</v>
       </c>
       <c r="AH59">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI59">
         <v>1</v>
       </c>
       <c r="AJ59">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AK59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>1301</v>
@@ -6963,28 +7062,28 @@
         <v>16.93</v>
       </c>
       <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
         <v>39</v>
-      </c>
-      <c r="F60" t="s">
-        <v>40</v>
       </c>
       <c r="G60">
         <v>60.01</v>
       </c>
       <c r="H60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I60">
         <v>9</v>
       </c>
       <c r="J60" t="s">
+        <v>41</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
         <v>42</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60" t="s">
-        <v>43</v>
       </c>
       <c r="M60">
         <v>7</v>
@@ -6993,13 +7092,13 @@
         <v>-19159930</v>
       </c>
       <c r="O60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R60" s="1">
         <v>44396</v>
@@ -7011,13 +7110,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W60">
-        <v>6.72</v>
+        <v>7.34</v>
       </c>
       <c r="X60">
         <v>1</v>
@@ -7026,36 +7125,36 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>2333</v>
+        <v>1488</v>
       </c>
       <c r="AD60">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AE60" t="s">
         <v>49</v>
       </c>
       <c r="AF60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG60">
-        <v>0.21647420000000001</v>
+        <v>0.21872920000000001</v>
       </c>
       <c r="AH60">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI60">
         <v>1</v>
       </c>
       <c r="AJ60">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61">
         <v>1301</v>
@@ -7067,28 +7166,28 @@
         <v>16.93</v>
       </c>
       <c r="E61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" t="s">
         <v>39</v>
-      </c>
-      <c r="F61" t="s">
-        <v>40</v>
       </c>
       <c r="G61">
         <v>60.01</v>
       </c>
       <c r="H61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I61">
         <v>9</v>
       </c>
       <c r="J61" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
         <v>42</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>43</v>
       </c>
       <c r="M61">
         <v>7</v>
@@ -7097,13 +7196,13 @@
         <v>-19159930</v>
       </c>
       <c r="O61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R61" s="1">
         <v>44396</v>
@@ -7115,51 +7214,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W61">
-        <v>7.34</v>
+        <v>7.03</v>
       </c>
       <c r="X61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z61">
-        <v>1488</v>
+        <v>1613</v>
       </c>
       <c r="AD61">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AE61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG61">
-        <v>0.21872920000000001</v>
+        <v>0.2083333</v>
       </c>
       <c r="AH61">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI61">
         <v>1</v>
       </c>
       <c r="AJ61">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62">
         <v>1301</v>
@@ -7171,28 +7270,28 @@
         <v>16.93</v>
       </c>
       <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" t="s">
         <v>39</v>
-      </c>
-      <c r="F62" t="s">
-        <v>40</v>
       </c>
       <c r="G62">
         <v>60.01</v>
       </c>
       <c r="H62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I62">
         <v>9</v>
       </c>
       <c r="J62" t="s">
+        <v>41</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
         <v>42</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
-        <v>43</v>
       </c>
       <c r="M62">
         <v>7</v>
@@ -7201,13 +7300,13 @@
         <v>-19159930</v>
       </c>
       <c r="O62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R62" s="1">
         <v>44396</v>
@@ -7219,51 +7318,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W62">
-        <v>7.03</v>
+        <v>6.4</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62">
-        <v>1613</v>
+        <v>2000</v>
       </c>
       <c r="AD62">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AE62" t="s">
         <v>49</v>
       </c>
       <c r="AF62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG62">
-        <v>0.2083333</v>
+        <v>0.21426529999999999</v>
       </c>
       <c r="AH62">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI62">
         <v>1</v>
       </c>
       <c r="AJ62">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63">
         <v>1301</v>
@@ -7275,28 +7374,28 @@
         <v>16.93</v>
       </c>
       <c r="E63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" t="s">
         <v>39</v>
-      </c>
-      <c r="F63" t="s">
-        <v>40</v>
       </c>
       <c r="G63">
         <v>60.01</v>
       </c>
       <c r="H63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I63">
         <v>9</v>
       </c>
       <c r="J63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
         <v>42</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63" t="s">
-        <v>43</v>
       </c>
       <c r="M63">
         <v>7</v>
@@ -7305,13 +7404,13 @@
         <v>-19159930</v>
       </c>
       <c r="O63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R63" s="1">
         <v>44396</v>
@@ -7323,51 +7422,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W63">
         <v>6.4</v>
       </c>
       <c r="X63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z63">
-        <v>2000</v>
+        <v>2049</v>
       </c>
       <c r="AD63">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AE63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG63">
-        <v>0.21426529999999999</v>
+        <v>0.18946669999999999</v>
       </c>
       <c r="AH63">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI63">
         <v>1</v>
       </c>
       <c r="AJ63">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64">
         <v>1301</v>
@@ -7379,28 +7478,28 @@
         <v>16.93</v>
       </c>
       <c r="E64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" t="s">
         <v>39</v>
-      </c>
-      <c r="F64" t="s">
-        <v>40</v>
       </c>
       <c r="G64">
         <v>60.01</v>
       </c>
       <c r="H64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I64">
         <v>9</v>
       </c>
       <c r="J64" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
         <v>42</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64" t="s">
-        <v>43</v>
       </c>
       <c r="M64">
         <v>7</v>
@@ -7409,13 +7508,13 @@
         <v>-19159930</v>
       </c>
       <c r="O64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R64" s="1">
         <v>44396</v>
@@ -7427,51 +7526,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W64">
-        <v>6.4</v>
+        <v>7.03</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64">
         <v>1</v>
       </c>
       <c r="Z64">
-        <v>2049</v>
+        <v>1680</v>
       </c>
       <c r="AD64">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AE64" t="s">
         <v>49</v>
       </c>
       <c r="AF64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG64">
-        <v>0.18946669999999999</v>
+        <v>0.20763999999999999</v>
       </c>
       <c r="AH64">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI64">
         <v>1</v>
       </c>
       <c r="AJ64">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK64">
-        <v>0</v>
+        <v>7.03</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B65">
         <v>1301</v>
@@ -7483,28 +7582,28 @@
         <v>16.93</v>
       </c>
       <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
         <v>39</v>
-      </c>
-      <c r="F65" t="s">
-        <v>40</v>
       </c>
       <c r="G65">
         <v>60.01</v>
       </c>
       <c r="H65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I65">
         <v>9</v>
       </c>
       <c r="J65" t="s">
+        <v>41</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
         <v>42</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65" t="s">
-        <v>43</v>
       </c>
       <c r="M65">
         <v>7</v>
@@ -7513,13 +7612,13 @@
         <v>-19159930</v>
       </c>
       <c r="O65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R65" s="1">
         <v>44396</v>
@@ -7531,51 +7630,51 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W65">
-        <v>7.03</v>
+        <v>4.83</v>
       </c>
       <c r="X65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>1</v>
       </c>
       <c r="Z65">
-        <v>1680</v>
+        <v>1558</v>
       </c>
       <c r="AD65">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AE65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG65">
-        <v>0.20763999999999999</v>
+        <v>0.19833329999999999</v>
       </c>
       <c r="AH65">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI65">
         <v>1</v>
       </c>
       <c r="AJ65">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK65">
-        <v>7.03</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66">
         <v>1301</v>
@@ -7587,28 +7686,28 @@
         <v>16.93</v>
       </c>
       <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="s">
         <v>39</v>
-      </c>
-      <c r="F66" t="s">
-        <v>40</v>
       </c>
       <c r="G66">
         <v>60.01</v>
       </c>
       <c r="H66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I66">
         <v>9</v>
       </c>
       <c r="J66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
         <v>42</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" t="s">
-        <v>43</v>
       </c>
       <c r="M66">
         <v>7</v>
@@ -7617,13 +7716,13 @@
         <v>-19159930</v>
       </c>
       <c r="O66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R66" s="1">
         <v>44396</v>
@@ -7635,13 +7734,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W66">
-        <v>4.83</v>
+        <v>2.63</v>
       </c>
       <c r="X66">
         <v>0</v>
@@ -7650,36 +7749,36 @@
         <v>1</v>
       </c>
       <c r="Z66">
-        <v>1558</v>
+        <v>1510</v>
       </c>
       <c r="AD66">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AE66" t="s">
         <v>49</v>
       </c>
       <c r="AF66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG66">
-        <v>0.19833329999999999</v>
+        <v>0.22170000000000001</v>
       </c>
       <c r="AH66">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI66">
         <v>1</v>
       </c>
       <c r="AJ66">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK66">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B67">
         <v>1301</v>
@@ -7691,28 +7790,28 @@
         <v>16.93</v>
       </c>
       <c r="E67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" t="s">
         <v>39</v>
-      </c>
-      <c r="F67" t="s">
-        <v>40</v>
       </c>
       <c r="G67">
         <v>60.01</v>
       </c>
       <c r="H67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I67">
         <v>9</v>
       </c>
       <c r="J67" t="s">
+        <v>41</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
         <v>42</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67" t="s">
-        <v>43</v>
       </c>
       <c r="M67">
         <v>7</v>
@@ -7721,13 +7820,13 @@
         <v>-19159930</v>
       </c>
       <c r="O67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R67" s="1">
         <v>44396</v>
@@ -7739,13 +7838,13 @@
         <v>0.66859953703703701</v>
       </c>
       <c r="U67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W67">
-        <v>2.63</v>
+        <v>3.26</v>
       </c>
       <c r="X67">
         <v>0</v>
@@ -7754,134 +7853,30 @@
         <v>1</v>
       </c>
       <c r="Z67">
-        <v>1510</v>
+        <v>4988</v>
       </c>
       <c r="AD67">
         <v>88</v>
       </c>
       <c r="AE67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG67">
-        <v>0.22170000000000001</v>
+        <v>0.21279999999999999</v>
       </c>
       <c r="AH67">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI67">
         <v>1</v>
       </c>
       <c r="AJ67">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK67">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68">
-        <v>1301</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>16.93</v>
-      </c>
-      <c r="E68" t="s">
-        <v>39</v>
-      </c>
-      <c r="F68" t="s">
-        <v>40</v>
-      </c>
-      <c r="G68">
-        <v>60.01</v>
-      </c>
-      <c r="H68" t="s">
-        <v>41</v>
-      </c>
-      <c r="I68">
-        <v>9</v>
-      </c>
-      <c r="J68" t="s">
-        <v>42</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68" t="s">
-        <v>43</v>
-      </c>
-      <c r="M68">
-        <v>7</v>
-      </c>
-      <c r="N68">
-        <v>-19159930</v>
-      </c>
-      <c r="O68" t="s">
-        <v>44</v>
-      </c>
-      <c r="P68" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>45</v>
-      </c>
-      <c r="R68" s="1">
-        <v>44396</v>
-      </c>
-      <c r="S68" s="2">
-        <v>44396.835266203707</v>
-      </c>
-      <c r="T68" s="3">
-        <v>0.66859953703703701</v>
-      </c>
-      <c r="U68" t="s">
-        <v>46</v>
-      </c>
-      <c r="V68">
-        <v>66</v>
-      </c>
-      <c r="W68">
-        <v>3.26</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>1</v>
-      </c>
-      <c r="Z68">
-        <v>4988</v>
-      </c>
-      <c r="AD68">
-        <v>88</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF68" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG68">
-        <v>0.21279999999999999</v>
-      </c>
-      <c r="AH68">
-        <v>62</v>
-      </c>
-      <c r="AI68">
-        <v>1</v>
-      </c>
-      <c r="AJ68">
-        <v>62</v>
-      </c>
-      <c r="AK68">
         <v>0</v>
       </c>
     </row>
